--- a/box/二公寓三号楼（数据表）.xlsx
+++ b/box/二公寓三号楼（数据表）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\零食盒子5-20 (1)\零食盒子5-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoxData\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="4-8（1）" sheetId="13" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="5-19(2)" sheetId="22" r:id="rId8"/>
     <sheet name="5-29（1）" sheetId="23" r:id="rId9"/>
     <sheet name="5-29（2）" sheetId="24" r:id="rId10"/>
+    <sheet name="6-10（1）" sheetId="25" r:id="rId11"/>
+    <sheet name="6-10（2）" sheetId="26" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="48">
   <si>
     <t>3号</t>
   </si>
@@ -170,6 +172,18 @@
     <t>&amp;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>雪碧可乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐焗鸡筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪碧可乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,13 +419,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,16 +446,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,73 +793,73 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="19" t="s">
+      <c r="V2" s="23"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="19" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3769,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AM27" sqref="AM27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3784,78 +3816,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +4741,7 @@
       <c r="A10" s="3">
         <v>304</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="3"/>
@@ -4761,7 +4793,7 @@
       <c r="A11" s="3">
         <v>324</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3">
@@ -5257,40 +5289,40 @@
       <c r="Q15" s="3">
         <v>-1</v>
       </c>
-      <c r="R15" s="26">
-        <v>1</v>
-      </c>
-      <c r="S15" s="26">
-        <v>1</v>
-      </c>
-      <c r="T15" s="26">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
-        <v>3</v>
-      </c>
-      <c r="V15" s="26">
-        <v>1</v>
-      </c>
-      <c r="W15" s="26">
-        <v>2</v>
-      </c>
-      <c r="X15" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="26">
+      <c r="R15" s="20">
+        <v>1</v>
+      </c>
+      <c r="S15" s="20">
+        <v>1</v>
+      </c>
+      <c r="T15" s="20">
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <v>3</v>
+      </c>
+      <c r="V15" s="20">
+        <v>1</v>
+      </c>
+      <c r="W15" s="20">
+        <v>2</v>
+      </c>
+      <c r="X15" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="20">
         <v>-1</v>
       </c>
-      <c r="AA15" s="26">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="26">
+      <c r="AA15" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="20">
         <v>2</v>
       </c>
       <c r="AD15" s="17"/>
@@ -5299,19 +5331,19 @@
       <c r="AG15" s="3">
         <v>1</v>
       </c>
-      <c r="AH15" s="26">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="27">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="27">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="27">
+      <c r="AH15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="21">
         <v>0</v>
       </c>
       <c r="AM15" s="3">
@@ -5439,7 +5471,7 @@
       <c r="A17" s="4">
         <v>107</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="4">
@@ -5673,7 +5705,7 @@
       <c r="A19" s="3">
         <v>125</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3"/>
@@ -6120,12 +6152,5155 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>707</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
+        <v>10</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>(C3)*0.9+(F3)*0.8+(I3)*4.5+(L3)+(O3)*3.8+R3+U3+X3*1.5+AA3*1.8+AD3*1.8+AJ3*2+AM3*1.5</f>
+        <v>80.5</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f>(C3-D3)*0.9+(F3-G3)*0.8+(I3-J3)*4.5+(L3-M3)+(O3-P3)*3.8+(R3-S3)+(U3-V3)+(X3-Y3)*1.5+(AA3-AB3)*1.8+(AD3-AE3)*1.8+(AJ3-AK3)*2+(AM3-AN3)*1.5</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>711</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" ref="AP4:AP25" si="0">(C4)*0.9+(F4)*0.8+(I4)*4.5+(L4)+(O4)*3.8+R4+U4+X4*1.5+AA4*1.8+AD4*1.8+AJ4*2+AM4*1.5</f>
+        <v>57.8</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f t="shared" ref="AQ4:AQ25" si="1">(C4-D4)*0.9+(F4-G4)*0.8+(I4-J4)*4.5+(L4-M4)+(O4-P4)*3.8+(R4-S4)+(U4-V4)+(X4-Y4)*1.5+(AA4-AB4)*1.8+(AD4-AE4)*1.8+(AJ4-AK4)*2+(AM4-AN4)*1.5</f>
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>713</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="0"/>
+        <v>60.599999999999994</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f t="shared" si="1"/>
+        <v>48.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>716</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f t="shared" si="1"/>
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>717</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
+        <v>5</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="0"/>
+        <v>58.3</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>718</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>-6</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="0"/>
+        <v>62.8</v>
+      </c>
+      <c r="AQ8" s="4">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>719</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>3</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="0"/>
+        <v>67.2</v>
+      </c>
+      <c r="AQ9" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>721</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4">
+        <v>-2</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>12</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="AQ10" s="4">
+        <f t="shared" si="1"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>727</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>-2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AP11" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="AQ11" s="4">
+        <f t="shared" si="1"/>
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>730</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="4">
+        <f t="shared" si="0"/>
+        <v>65.2</v>
+      </c>
+      <c r="AQ12" s="4">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>601</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3">
+        <v>5</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="4">
+        <f t="shared" si="0"/>
+        <v>47.1</v>
+      </c>
+      <c r="AQ13" s="4">
+        <f t="shared" si="1"/>
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>602</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>3</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>10</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>10</v>
+      </c>
+      <c r="AP14" s="4">
+        <f t="shared" si="0"/>
+        <v>99.800000000000011</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f t="shared" si="1"/>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>604</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3">
+        <v>10</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP15" s="4">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f t="shared" si="1"/>
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>606</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>7</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>-6</v>
+      </c>
+      <c r="AP16" s="4">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>607</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-6</v>
+      </c>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4">
+        <f t="shared" si="0"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <v>609</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>615</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
+        <v>9</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4">
+        <v>10</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>2</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP19" s="4">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="AQ19" s="4">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>616</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-2</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
+        <v>2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>2</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AP20" s="4">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="AQ20" s="4">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>622</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-3</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>3</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4">
+        <v>10</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>15</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>15</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" si="0"/>
+        <v>148.5</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f t="shared" si="1"/>
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>623</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
+        <v>2</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-2</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP22" s="4">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f t="shared" si="1"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>627</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
+        <v>4</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>-2</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>12</v>
+      </c>
+      <c r="AP23" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AQ23" s="4">
+        <f t="shared" si="1"/>
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>630</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="11">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>12</v>
+      </c>
+      <c r="AP24" s="4">
+        <f t="shared" si="0"/>
+        <v>102.9</v>
+      </c>
+      <c r="AQ24" s="4">
+        <f t="shared" si="1"/>
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>632</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4">
+        <v>5</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="4">
+        <f t="shared" si="0"/>
+        <v>43.6</v>
+      </c>
+      <c r="AQ25" s="4">
+        <f t="shared" si="1"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="4">
+        <f>(C26)*0.9+(F26)*0.8+(I26)*4.5+(L26)+(O26)*3.8+R26+U26+X26*1.5+AA26*1.8+AD26*1.8+AJ26*2+AM26*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="4">
+        <f>(C26-D26)*0.9+(F26-G26)*0.8+(I26-J26)*4.5+(L26-M26)+(O26-P26)*3.8+(R26-S26)+(U26-V26)+(X26-Y26)*1.5+(AA26-AB26)*1.8+(AD26-AE26)*1.8+(AJ26-AK26)*2+(AM26-AN26)*1.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="4">
+        <f>(C27)*0.9+(F27)*0.8+(I27)*4.5+(L27)+(O27)*3.8+R27+U27+X27*1.5+AA27*1.8+AD27*1.8+AJ27*2+AM27*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="4">
+        <f>(C27-D27)*0.9+(F27-G27)*0.8+(I27-J27)*4.5+(L27-M27)+(O27-P27)*3.8+(R27-S27)+(U27-V27)+(X27-Y27)*1.5+(AA27-AB27)*1.8+(AD27-AE27)*1.8+(AJ27-AK27)*2+(AM27-AN27)*1.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8">
+        <f>SUM(AP3:AP27)</f>
+        <v>1559.6</v>
+      </c>
+      <c r="AQ28" s="8">
+        <f>SUM(AQ3:AQ27)</f>
+        <v>1210.3000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AQ29">
+        <v>786.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="41" width="3.25" customWidth="1"/>
+    <col min="42" max="43" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>505</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="X3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AP3" s="3">
+        <f t="shared" ref="AP3:AP21" si="0">(C3)*0.9+(F3)*0.8+(I3)*4.5+(L3)+(O3)*3.8+R3+U3+X3*1.5+AA3*1.8+AD3*1.8+AG3*2+AM3*1.5</f>
+        <v>48.6</v>
+      </c>
+      <c r="AQ3" s="3">
+        <f t="shared" ref="AQ3:AQ21" si="1">(C3-D3)*0.9+(F3-G3)*0.8+(I3-J3)*4.5+(L3-M3)+(O3-P3)*3.8+(R3-S3)+(U3-V3)+(X3-Y3)*1.5+(AA3-AB3)*1.8+(AD3-AE3)*1.8+(AG3-AH3)*2+(AM3-AN3)*1.5</f>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>506</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
+        <v>5</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <f t="shared" si="0"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f t="shared" si="1"/>
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>507</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="3">
+        <f t="shared" si="0"/>
+        <v>63.1</v>
+      </c>
+      <c r="AQ5" s="3">
+        <f t="shared" si="1"/>
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>512</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="0"/>
+        <v>63.7</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="1"/>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>518</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>6</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>4</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="0"/>
+        <v>82.6</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" si="1"/>
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>522</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>-6</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>-7</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" si="0"/>
+        <v>76.2</v>
+      </c>
+      <c r="AQ8" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>535</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4">
+        <v>3</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AQ9" s="3">
+        <f t="shared" si="1"/>
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>304</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>325</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>4</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>14</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="0"/>
+        <v>95.7</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f t="shared" si="1"/>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>326</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f t="shared" si="1"/>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>203</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="0"/>
+        <v>42.099999999999994</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="1"/>
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>207</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="20">
+        <v>1</v>
+      </c>
+      <c r="S14" s="20">
+        <v>1</v>
+      </c>
+      <c r="T14" s="20">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="20">
+        <v>3</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="20">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="0"/>
+        <v>30.4</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2</v>
+      </c>
+      <c r="U15" s="3">
+        <v>10</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="0"/>
+        <v>59.3</v>
+      </c>
+      <c r="AQ15" s="3">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>107</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22">
+        <v>4</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22">
+        <v>2</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22">
+        <v>1</v>
+      </c>
+      <c r="S16" s="22">
+        <v>1</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22">
+        <v>3</v>
+      </c>
+      <c r="V16" s="22">
+        <v>3</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="3">
+        <f t="shared" si="0"/>
+        <v>29.3</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <v>10</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="AQ17" s="3">
+        <f t="shared" si="1"/>
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>126</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>6</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
+        <v>4</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP18" s="3">
+        <f t="shared" si="0"/>
+        <v>56.599999999999994</v>
+      </c>
+      <c r="AQ18" s="3">
+        <f t="shared" si="1"/>
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>3</v>
+      </c>
+      <c r="V19" s="3">
+        <v>3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-2</v>
+      </c>
+      <c r="X19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-2</v>
+      </c>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" si="0"/>
+        <v>41.8</v>
+      </c>
+      <c r="AQ19" s="3">
+        <f t="shared" si="1"/>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8">
+        <f>SUM(AP3:AP21)</f>
+        <v>941.39999999999986</v>
+      </c>
+      <c r="AQ22" s="8">
+        <f>SUM(AQ3:AQ21)</f>
+        <v>704.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AQ23">
+        <v>445.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6151,73 +11326,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8861,73 +14036,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -11373,73 +16548,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -13251,78 +18426,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -16413,78 +21588,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -19061,78 +24236,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -22275,78 +27450,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -24906,89 +30081,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="38" width="3.625" customWidth="1"/>
-    <col min="39" max="40" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="39" max="40" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="19" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -26816,7 +31992,7 @@
       <c r="A18" s="4">
         <v>609</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="4"/>
@@ -27496,7 +32672,7 @@
       <c r="A25" s="4">
         <v>632</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="4">
@@ -27753,12 +32929,12 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
